--- a/dist/document/dest/2020/10/doctors/8.xlsx
+++ b/dist/document/dest/2020/10/doctors/8.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>90</v>
       </c>
-      <c r="C2" s="1">
-        <v>326700</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
-        <v>42350</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>390</v>
       </c>
-      <c r="C4" s="1">
-        <v>2616900</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>1784</v>
       </c>
-      <c r="C5" s="1">
-        <v>14718000</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>30</v>
       </c>
-      <c r="C6" s="1">
-        <v>74700</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>987</v>
       </c>
-      <c r="C7" s="1">
-        <v>3405150</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>600</v>
       </c>
-      <c r="C8" s="1">
-        <v>5280000</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>2220</v>
       </c>
-      <c r="C9" s="1">
-        <v>12765000</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>15</v>
       </c>
-      <c r="C10" s="1">
-        <v>1170000</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>360</v>
       </c>
-      <c r="C11" s="1">
-        <v>2970000</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>150</v>
       </c>
-      <c r="C12" s="1">
-        <v>569250</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>655</v>
       </c>
-      <c r="C13" s="1">
-        <v>1129875</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>1389</v>
       </c>
-      <c r="C14" s="1">
-        <v>10389720</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>1179</v>
       </c>
-      <c r="C15" s="1">
-        <v>9078300</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>258</v>
       </c>
-      <c r="C16" s="1">
-        <v>1364820</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>1993</v>
       </c>
-      <c r="C17" s="1">
-        <v>15346100</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>270</v>
       </c>
-      <c r="C18" s="1">
-        <v>807300</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>1575</v>
       </c>
-      <c r="C19" s="1">
-        <v>7245000</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>296</v>
       </c>
-      <c r="C20" s="1">
-        <v>1021200</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>4137</v>
       </c>
-      <c r="C21" s="1">
-        <v>13548675</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>3</v>
       </c>
-      <c r="C22" s="1">
-        <v>297000</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>30</v>
       </c>
-      <c r="C23" s="1">
-        <v>207900</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>30</v>
       </c>
-      <c r="C24" s="1">
-        <v>159000</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>1064</v>
       </c>
-      <c r="C25" s="1">
-        <v>4830560</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>45</v>
       </c>
-      <c r="C26" s="1">
-        <v>168075</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>3640</v>
       </c>
-      <c r="C27" s="1">
-        <v>7953400</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>455</v>
       </c>
-      <c r="C28" s="1">
-        <v>3253250</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>8670</v>
       </c>
-      <c r="C29" s="1">
-        <v>22368600</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>195</v>
       </c>
-      <c r="C30" s="1">
-        <v>2734875</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>11</v>
       </c>
-      <c r="C31" s="1">
-        <v>6006</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>702</v>
       </c>
-      <c r="C32" s="1">
-        <v>10038600</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>870</v>
       </c>
-      <c r="C33" s="1">
-        <v>2201100</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>1800</v>
       </c>
-      <c r="C34" s="1">
-        <v>10350000</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>100</v>
       </c>
-      <c r="C35" s="1">
-        <v>1320000</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>570</v>
       </c>
-      <c r="C36" s="1">
-        <v>1966500</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>3302</v>
       </c>
-      <c r="C37" s="1">
-        <v>10434320</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>1579</v>
       </c>
-      <c r="C38" s="1">
-        <v>17021620</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>1322</v>
       </c>
-      <c r="C39" s="1">
-        <v>9016040</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>196</v>
       </c>
-      <c r="C40" s="1">
-        <v>16816800</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>60</v>
       </c>
-      <c r="C41" s="1">
-        <v>924000</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>1360</v>
       </c>
-      <c r="C42" s="1">
-        <v>23487200</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>1185</v>
       </c>
-      <c r="C43" s="1">
-        <v>14338500</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>1785</v>
       </c>
-      <c r="C44" s="1">
-        <v>6158250</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>51</v>
       </c>
-      <c r="C45" s="1">
-        <v>41820</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>600</v>
       </c>
-      <c r="C46" s="1">
-        <v>8316000</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>405</v>
       </c>
-      <c r="C47" s="1">
-        <v>1257525</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>300</v>
       </c>
-      <c r="C48" s="1">
-        <v>90000</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>45</v>
       </c>
-      <c r="C49" s="1">
-        <v>49050</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>3680</v>
       </c>
-      <c r="C50" s="1">
-        <v>12272800</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>20</v>
       </c>
-      <c r="C51" s="1">
-        <v>37800</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -954,9 +804,6 @@
       <c r="B52" s="1">
         <v>90</v>
       </c>
-      <c r="C52" s="1">
-        <v>97200</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -965,9 +812,6 @@
       <c r="B53" s="1">
         <v>645</v>
       </c>
-      <c r="C53" s="1">
-        <v>4257000</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -976,9 +820,6 @@
       <c r="B54" s="1">
         <v>170</v>
       </c>
-      <c r="C54" s="1">
-        <v>1122000</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -987,9 +828,6 @@
       <c r="B55" s="1">
         <v>90</v>
       </c>
-      <c r="C55" s="1">
-        <v>544500</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -998,9 +836,6 @@
       <c r="B56" s="1">
         <v>4325</v>
       </c>
-      <c r="C56" s="1">
-        <v>45196250</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1009,9 +844,6 @@
       <c r="B57" s="1">
         <v>1944</v>
       </c>
-      <c r="C57" s="1">
-        <v>29937600</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1020,9 +852,6 @@
       <c r="B58" s="1">
         <v>21738</v>
       </c>
-      <c r="C58" s="1">
-        <v>368241720</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1031,9 +860,6 @@
       <c r="B59" s="1">
         <v>300</v>
       </c>
-      <c r="C59" s="1">
-        <v>3564000</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -1042,9 +868,6 @@
       <c r="B60" s="1">
         <v>60</v>
       </c>
-      <c r="C60" s="1">
-        <v>179400</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -1053,9 +876,6 @@
       <c r="B61" s="1">
         <v>750</v>
       </c>
-      <c r="C61" s="1">
-        <v>510000</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -1064,9 +884,6 @@
       <c r="B62" s="1">
         <v>1399</v>
       </c>
-      <c r="C62" s="1">
-        <v>22314050</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -1075,9 +892,6 @@
       <c r="B63" s="1">
         <v>1456</v>
       </c>
-      <c r="C63" s="1">
-        <v>22422400</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -1086,9 +900,6 @@
       <c r="B64" s="1">
         <v>375</v>
       </c>
-      <c r="C64" s="1">
-        <v>1940625</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -1097,9 +908,6 @@
       <c r="B65" s="1">
         <v>30</v>
       </c>
-      <c r="C65" s="1">
-        <v>297000</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -1108,9 +916,6 @@
       <c r="B66" s="1">
         <v>120</v>
       </c>
-      <c r="C66" s="1">
-        <v>358800</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -1119,9 +924,6 @@
       <c r="B67" s="1">
         <v>10</v>
       </c>
-      <c r="C67" s="1">
-        <v>49000</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -1130,9 +932,6 @@
       <c r="B68" s="1">
         <v>6</v>
       </c>
-      <c r="C68" s="1">
-        <v>198000</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -1141,9 +940,6 @@
       <c r="B69" s="1">
         <v>196</v>
       </c>
-      <c r="C69" s="1">
-        <v>12348000</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -1152,9 +948,6 @@
       <c r="B70" s="1">
         <v>3510</v>
       </c>
-      <c r="C70" s="1">
-        <v>16146000</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -1163,9 +956,6 @@
       <c r="B71" s="1">
         <v>6020</v>
       </c>
-      <c r="C71" s="1">
-        <v>34434400</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -1174,9 +964,6 @@
       <c r="B72" s="1">
         <v>989</v>
       </c>
-      <c r="C72" s="1">
-        <v>8159250</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -1185,9 +972,6 @@
       <c r="B73" s="1">
         <v>60</v>
       </c>
-      <c r="C73" s="1">
-        <v>245400</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -1196,9 +980,6 @@
       <c r="B74" s="1">
         <v>3958</v>
       </c>
-      <c r="C74" s="1">
-        <v>10013740</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
@@ -1207,9 +988,6 @@
       <c r="B75" s="1">
         <v>1190</v>
       </c>
-      <c r="C75" s="1">
-        <v>10210200</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
@@ -1218,9 +996,6 @@
       <c r="B76" s="1">
         <v>355</v>
       </c>
-      <c r="C76" s="1">
-        <v>7731900</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
@@ -1229,9 +1004,6 @@
       <c r="B77" s="1">
         <v>360</v>
       </c>
-      <c r="C77" s="1">
-        <v>1449000</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
@@ -1240,9 +1012,6 @@
       <c r="B78" s="1">
         <v>375</v>
       </c>
-      <c r="C78" s="1">
-        <v>1035000</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
@@ -1251,9 +1020,6 @@
       <c r="B79" s="1">
         <v>1450</v>
       </c>
-      <c r="C79" s="1">
-        <v>5002500</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
@@ -1262,9 +1028,6 @@
       <c r="B80" s="1">
         <v>990</v>
       </c>
-      <c r="C80" s="1">
-        <v>3529350</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
@@ -1273,9 +1036,6 @@
       <c r="B81" s="1">
         <v>2880</v>
       </c>
-      <c r="C81" s="1">
-        <v>10929600</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
@@ -1284,9 +1044,6 @@
       <c r="B82" s="1">
         <v>4534</v>
       </c>
-      <c r="C82" s="1">
-        <v>55858880</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
@@ -1295,9 +1052,6 @@
       <c r="B83" s="1">
         <v>450</v>
       </c>
-      <c r="C83" s="1">
-        <v>1759500</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
@@ -1306,9 +1060,6 @@
       <c r="B84" s="1">
         <v>2126</v>
       </c>
-      <c r="C84" s="1">
-        <v>7579190</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
@@ -1317,9 +1068,6 @@
       <c r="B85" s="1">
         <v>90</v>
       </c>
-      <c r="C85" s="1">
-        <v>238050</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
@@ -1328,9 +1076,6 @@
       <c r="B86" s="1">
         <v>238</v>
       </c>
-      <c r="C86" s="1">
-        <v>1439900</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
@@ -1339,9 +1084,6 @@
       <c r="B87" s="1">
         <v>60</v>
       </c>
-      <c r="C87" s="1">
-        <v>936000</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
@@ -1350,9 +1092,6 @@
       <c r="B88" s="1">
         <v>2536</v>
       </c>
-      <c r="C88" s="1">
-        <v>24548480</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
@@ -1361,9 +1100,6 @@
       <c r="B89" s="1">
         <v>260</v>
       </c>
-      <c r="C89" s="1">
-        <v>1465100</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
@@ -1372,9 +1108,6 @@
       <c r="B90" s="1">
         <v>150</v>
       </c>
-      <c r="C90" s="1">
-        <v>1980000</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
@@ -1383,9 +1116,6 @@
       <c r="B91" s="1">
         <v>45</v>
       </c>
-      <c r="C91" s="1">
-        <v>76050</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
@@ -1394,9 +1124,6 @@
       <c r="B92" s="1">
         <v>30</v>
       </c>
-      <c r="C92" s="1">
-        <v>34650</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
@@ -1405,9 +1132,6 @@
       <c r="B93" s="1">
         <v>3447</v>
       </c>
-      <c r="C93" s="1">
-        <v>15856200</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
@@ -1416,9 +1140,6 @@
       <c r="B94" s="1">
         <v>7060</v>
       </c>
-      <c r="C94" s="1">
-        <v>40595000</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
@@ -1427,9 +1148,6 @@
       <c r="B95" s="1">
         <v>11983</v>
       </c>
-      <c r="C95" s="1">
-        <v>89632840</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
@@ -1438,9 +1156,6 @@
       <c r="B96" s="1">
         <v>560</v>
       </c>
-      <c r="C96" s="1">
-        <v>10472000</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
@@ -1449,9 +1164,6 @@
       <c r="B97" s="1">
         <v>150</v>
       </c>
-      <c r="C97" s="1">
-        <v>828000</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
@@ -1460,9 +1172,6 @@
       <c r="B98" s="1">
         <v>1050</v>
       </c>
-      <c r="C98" s="1">
-        <v>6121500</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
@@ -1471,9 +1180,6 @@
       <c r="B99" s="1">
         <v>254</v>
       </c>
-      <c r="C99" s="1">
-        <v>1372870</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
@@ -1482,9 +1188,6 @@
       <c r="B100" s="1">
         <v>260</v>
       </c>
-      <c r="C100" s="1">
-        <v>4204200</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
@@ -1493,9 +1196,6 @@
       <c r="B101" s="1">
         <v>489</v>
       </c>
-      <c r="C101" s="1">
-        <v>7530600</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
@@ -1504,9 +1204,6 @@
       <c r="B102" s="1">
         <v>2502</v>
       </c>
-      <c r="C102" s="1">
-        <v>8056440</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
@@ -1515,9 +1212,6 @@
       <c r="B103" s="1">
         <v>270</v>
       </c>
-      <c r="C103" s="1">
-        <v>807300</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
@@ -1526,9 +1220,6 @@
       <c r="B104" s="1">
         <v>60</v>
       </c>
-      <c r="C104" s="1">
-        <v>76200</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
@@ -1537,9 +1228,6 @@
       <c r="B105" s="1">
         <v>240</v>
       </c>
-      <c r="C105" s="1">
-        <v>1584000</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
@@ -1548,9 +1236,6 @@
       <c r="B106" s="1">
         <v>24</v>
       </c>
-      <c r="C106" s="1">
-        <v>96600</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
@@ -1559,9 +1244,6 @@
       <c r="B107" s="1">
         <v>298</v>
       </c>
-      <c r="C107" s="1">
-        <v>3769700</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
@@ -1570,9 +1252,6 @@
       <c r="B108" s="1">
         <v>1956</v>
       </c>
-      <c r="C108" s="1">
-        <v>10797120</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
@@ -1581,9 +1260,6 @@
       <c r="B109" s="1">
         <v>60</v>
       </c>
-      <c r="C109" s="1">
-        <v>127200</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
@@ -1592,9 +1268,6 @@
       <c r="B110" s="1">
         <v>705</v>
       </c>
-      <c r="C110" s="1">
-        <v>1501650</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
@@ -1603,9 +1276,6 @@
       <c r="B111" s="1">
         <v>4170</v>
       </c>
-      <c r="C111" s="1">
-        <v>21100200</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
@@ -1614,9 +1284,6 @@
       <c r="B112" s="1">
         <v>2835</v>
       </c>
-      <c r="C112" s="1">
-        <v>11410875</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
@@ -1625,9 +1292,6 @@
       <c r="B113" s="1">
         <v>1008</v>
       </c>
-      <c r="C113" s="1">
-        <v>6763680</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
@@ -1636,9 +1300,6 @@
       <c r="B114" s="1">
         <v>2340</v>
       </c>
-      <c r="C114" s="1">
-        <v>9418500</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
@@ -1647,9 +1308,6 @@
       <c r="B115" s="1">
         <v>540</v>
       </c>
-      <c r="C115" s="1">
-        <v>6831000</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
@@ -1658,9 +1316,6 @@
       <c r="B116" s="1">
         <v>120</v>
       </c>
-      <c r="C116" s="1">
-        <v>792000</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
@@ -1669,9 +1324,6 @@
       <c r="B117" s="1">
         <v>840</v>
       </c>
-      <c r="C117" s="1">
-        <v>3864000</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
@@ -1680,9 +1332,6 @@
       <c r="B118" s="1">
         <v>18</v>
       </c>
-      <c r="C118" s="1">
-        <v>90000</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
@@ -1691,9 +1340,6 @@
       <c r="B119" s="1">
         <v>60</v>
       </c>
-      <c r="C119" s="1">
-        <v>345000</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
@@ -1702,9 +1348,6 @@
       <c r="B120" s="1">
         <v>270</v>
       </c>
-      <c r="C120" s="1">
-        <v>2272050</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
@@ -1713,9 +1356,6 @@
       <c r="B121" s="1">
         <v>470</v>
       </c>
-      <c r="C121" s="1">
-        <v>5118300</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
@@ -1724,9 +1364,6 @@
       <c r="B122" s="1">
         <v>330</v>
       </c>
-      <c r="C122" s="1">
-        <v>3194400</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
@@ -1735,9 +1372,6 @@
       <c r="B123" s="1">
         <v>90</v>
       </c>
-      <c r="C123" s="1">
-        <v>289800</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
@@ -1746,9 +1380,6 @@
       <c r="B124" s="1">
         <v>80</v>
       </c>
-      <c r="C124" s="1">
-        <v>80000</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
@@ -1757,9 +1388,6 @@
       <c r="B125" s="1">
         <v>1431</v>
       </c>
-      <c r="C125" s="1">
-        <v>7240860</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
@@ -1768,9 +1396,6 @@
       <c r="B126" s="1">
         <v>2865</v>
       </c>
-      <c r="C126" s="1">
-        <v>18909000</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
@@ -1779,9 +1404,6 @@
       <c r="B127" s="1">
         <v>2007</v>
       </c>
-      <c r="C127" s="1">
-        <v>8308980</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
@@ -1790,9 +1412,6 @@
       <c r="B128" s="1">
         <v>1050</v>
       </c>
-      <c r="C128" s="1">
-        <v>3318000</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
@@ -1801,9 +1420,6 @@
       <c r="B129" s="1">
         <v>273</v>
       </c>
-      <c r="C129" s="1">
-        <v>1098825</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
@@ -1812,9 +1428,6 @@
       <c r="B130" s="1">
         <v>247</v>
       </c>
-      <c r="C130" s="1">
-        <v>4279275</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
@@ -1823,9 +1436,6 @@
       <c r="B131" s="1">
         <v>500</v>
       </c>
-      <c r="C131" s="1">
-        <v>4400000</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
@@ -1834,9 +1444,6 @@
       <c r="B132" s="1">
         <v>30</v>
       </c>
-      <c r="C132" s="1">
-        <v>544500</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
@@ -1845,9 +1452,6 @@
       <c r="B133" s="1">
         <v>765</v>
       </c>
-      <c r="C133" s="1">
-        <v>6709050</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
@@ -1856,9 +1460,6 @@
       <c r="B134" s="1">
         <v>1890</v>
       </c>
-      <c r="C134" s="1">
-        <v>12266100</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
@@ -1867,9 +1468,6 @@
       <c r="B135" s="1">
         <v>60</v>
       </c>
-      <c r="C135" s="1">
-        <v>1056000</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
@@ -1878,9 +1476,6 @@
       <c r="B136" s="1">
         <v>3360</v>
       </c>
-      <c r="C136" s="1">
-        <v>25872000</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
@@ -1889,9 +1484,6 @@
       <c r="B137" s="1">
         <v>1</v>
       </c>
-      <c r="C137" s="1">
-        <v>70500</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
@@ -1900,9 +1492,6 @@
       <c r="B138" s="1">
         <v>3021</v>
       </c>
-      <c r="C138" s="1">
-        <v>3640305</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
@@ -1911,9 +1500,6 @@
       <c r="B139" s="1">
         <v>8792</v>
       </c>
-      <c r="C139" s="1">
-        <v>81238080</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
@@ -1922,9 +1508,6 @@
       <c r="B140" s="1">
         <v>498</v>
       </c>
-      <c r="C140" s="1">
-        <v>8217000</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
@@ -1933,9 +1516,6 @@
       <c r="B141" s="1">
         <v>476</v>
       </c>
-      <c r="C141" s="1">
-        <v>2408560</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
@@ -1944,9 +1524,6 @@
       <c r="B142" s="1">
         <v>60</v>
       </c>
-      <c r="C142" s="1">
-        <v>528000</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
@@ -1955,9 +1532,6 @@
       <c r="B143" s="1">
         <v>2700</v>
       </c>
-      <c r="C143" s="1">
-        <v>19305000</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
@@ -1966,9 +1540,6 @@
       <c r="B144" s="1">
         <v>965</v>
       </c>
-      <c r="C144" s="1">
-        <v>4439000</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
@@ -1977,9 +1548,6 @@
       <c r="B145" s="1">
         <v>855</v>
       </c>
-      <c r="C145" s="1">
-        <v>7429950</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
@@ -1988,9 +1556,6 @@
       <c r="B146" s="1">
         <v>867</v>
       </c>
-      <c r="C146" s="1">
-        <v>4686135</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
@@ -1999,9 +1564,6 @@
       <c r="B147" s="1">
         <v>2</v>
       </c>
-      <c r="C147" s="1">
-        <v>718800</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
@@ -2010,9 +1572,6 @@
       <c r="B148" s="1">
         <v>748</v>
       </c>
-      <c r="C148" s="1">
-        <v>6462720</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
@@ -2021,9 +1580,6 @@
       <c r="B149" s="1">
         <v>1405</v>
       </c>
-      <c r="C149" s="1">
-        <v>12364000</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
@@ -2032,9 +1588,6 @@
       <c r="B150" s="1">
         <v>15</v>
       </c>
-      <c r="C150" s="1">
-        <v>33300</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
@@ -2043,9 +1596,6 @@
       <c r="B151" s="1">
         <v>14</v>
       </c>
-      <c r="C151" s="1">
-        <v>2515800</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
@@ -2054,9 +1604,6 @@
       <c r="B152" s="1">
         <v>324</v>
       </c>
-      <c r="C152" s="1">
-        <v>5987520</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
@@ -2065,9 +1612,6 @@
       <c r="B153" s="1">
         <v>660</v>
       </c>
-      <c r="C153" s="1">
-        <v>2049300</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
@@ -2076,9 +1620,6 @@
       <c r="B154" s="1">
         <v>24</v>
       </c>
-      <c r="C154" s="1">
-        <v>2256000</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
@@ -2087,9 +1628,6 @@
       <c r="B155" s="1">
         <v>54</v>
       </c>
-      <c r="C155" s="1">
-        <v>5940000</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
@@ -2098,9 +1636,6 @@
       <c r="B156" s="1">
         <v>534</v>
       </c>
-      <c r="C156" s="1">
-        <v>3818100</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
@@ -2109,9 +1644,6 @@
       <c r="B157" s="1">
         <v>135</v>
       </c>
-      <c r="C157" s="1">
-        <v>2673000</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
@@ -2120,9 +1652,6 @@
       <c r="B158" s="1">
         <v>12153</v>
       </c>
-      <c r="C158" s="1">
-        <v>132346170</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
@@ -2131,9 +1660,6 @@
       <c r="B159" s="1">
         <v>120</v>
       </c>
-      <c r="C159" s="1">
-        <v>621000</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
@@ -2142,9 +1668,6 @@
       <c r="B160" s="1">
         <v>1500</v>
       </c>
-      <c r="C160" s="1">
-        <v>6037500</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
@@ -2153,9 +1676,6 @@
       <c r="B161" s="1">
         <v>4110</v>
       </c>
-      <c r="C161" s="1">
-        <v>5199150</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
@@ -2164,9 +1684,6 @@
       <c r="B162" s="1">
         <v>1019</v>
       </c>
-      <c r="C162" s="1">
-        <v>7734210</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
@@ -2175,9 +1692,6 @@
       <c r="B163" s="1">
         <v>168</v>
       </c>
-      <c r="C163" s="1">
-        <v>163800</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
@@ -2186,9 +1700,6 @@
       <c r="B164" s="1">
         <v>1708</v>
       </c>
-      <c r="C164" s="1">
-        <v>7071120</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
@@ -2197,9 +1708,6 @@
       <c r="B165" s="1">
         <v>2</v>
       </c>
-      <c r="C165" s="1">
-        <v>104000</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
@@ -2208,9 +1716,6 @@
       <c r="B166" s="1">
         <v>600</v>
       </c>
-      <c r="C166" s="1">
-        <v>5148000</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
@@ -2219,9 +1724,6 @@
       <c r="B167" s="1">
         <v>1592</v>
       </c>
-      <c r="C167" s="1">
-        <v>5492400</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
@@ -2230,9 +1732,6 @@
       <c r="B168" s="1">
         <v>8285</v>
       </c>
-      <c r="C168" s="1">
-        <v>72452325</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
@@ -2241,9 +1740,6 @@
       <c r="B169" s="1">
         <v>2730</v>
       </c>
-      <c r="C169" s="1">
-        <v>5337150</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
@@ -2252,9 +1748,6 @@
       <c r="B170" s="1">
         <v>14</v>
       </c>
-      <c r="C170" s="1">
-        <v>1155000</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
@@ -2263,9 +1756,6 @@
       <c r="B171" s="1">
         <v>6620</v>
       </c>
-      <c r="C171" s="1">
-        <v>15987300</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
@@ -2274,9 +1764,6 @@
       <c r="B172" s="1">
         <v>3773</v>
       </c>
-      <c r="C172" s="1">
-        <v>17129420</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
@@ -2285,9 +1772,6 @@
       <c r="B173" s="1">
         <v>300</v>
       </c>
-      <c r="C173" s="1">
-        <v>1138500</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
@@ -2296,9 +1780,6 @@
       <c r="B174" s="1">
         <v>90</v>
       </c>
-      <c r="C174" s="1">
-        <v>258750</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
@@ -2307,9 +1788,6 @@
       <c r="B175" s="1">
         <v>960</v>
       </c>
-      <c r="C175" s="1">
-        <v>88704000</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
@@ -2318,9 +1796,6 @@
       <c r="B176" s="1">
         <v>978</v>
       </c>
-      <c r="C176" s="1">
-        <v>17643120</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
@@ -2329,9 +1804,6 @@
       <c r="B177" s="1">
         <v>2955</v>
       </c>
-      <c r="C177" s="1">
-        <v>25353900</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
@@ -2340,9 +1812,6 @@
       <c r="B178" s="1">
         <v>630</v>
       </c>
-      <c r="C178" s="1">
-        <v>5544000</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
@@ -2351,9 +1820,6 @@
       <c r="B179" s="1">
         <v>30</v>
       </c>
-      <c r="C179" s="1">
-        <v>20400</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
@@ -2362,9 +1828,6 @@
       <c r="B180" s="1">
         <v>15</v>
       </c>
-      <c r="C180" s="1">
-        <v>102000</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
@@ -2373,9 +1836,6 @@
       <c r="B181" s="1">
         <v>19257</v>
       </c>
-      <c r="C181" s="1">
-        <v>93011310</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
@@ -2384,9 +1844,6 @@
       <c r="B182" s="1">
         <v>659</v>
       </c>
-      <c r="C182" s="1">
-        <v>3410325</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
@@ -2395,9 +1852,6 @@
       <c r="B183" s="1">
         <v>1094</v>
       </c>
-      <c r="C183" s="1">
-        <v>8330810</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
@@ -2406,9 +1860,6 @@
       <c r="B184" s="1">
         <v>3</v>
       </c>
-      <c r="C184" s="1">
-        <v>36900</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
@@ -2417,9 +1868,6 @@
       <c r="B185" s="1">
         <v>444</v>
       </c>
-      <c r="C185" s="1">
-        <v>12210000</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
@@ -2428,9 +1876,6 @@
       <c r="B186" s="1">
         <v>644</v>
       </c>
-      <c r="C186" s="1">
-        <v>7509040</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
@@ -2439,9 +1884,6 @@
       <c r="B187" s="1">
         <v>270</v>
       </c>
-      <c r="C187" s="1">
-        <v>931500</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
@@ -2450,9 +1892,6 @@
       <c r="B188" s="1">
         <v>1138</v>
       </c>
-      <c r="C188" s="1">
-        <v>11015840</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
@@ -2462,7 +1901,7 @@
         <v>273848</v>
       </c>
       <c r="C189" s="1">
-        <v>2113347141</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>
